--- a/medicine/Psychotrope/Château_Lagrézette/Château_Lagrézette.xlsx
+++ b/medicine/Psychotrope/Château_Lagrézette/Château_Lagrézette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lagr%C3%A9zette</t>
+          <t>Château_Lagrézette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de La Grézette ou château Lagrézette est un château français situé dans la commune de Caillac (Lot).
-Le château, son escalier, la salle à manger, la chapelle et les cheminées sculptée des grandes salles du premier et du second étage, le pigeonnier, font l'objet d'un classement au titre des Monuments historiques depuis le 21 octobre 1982[1].
+Le château, son escalier, la salle à manger, la chapelle et les cheminées sculptée des grandes salles du premier et du second étage, le pigeonnier, font l'objet d'un classement au titre des Monuments historiques depuis le 21 octobre 1982.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lagr%C3%A9zette</t>
+          <t>Château_Lagrézette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">XVIe au XVIIIe siècle
 Le château Lagrézette a été bâti au XVIe siècle par Pierre de Massault dont le frère, Gilibert, homme de goût très raffiné, était archidiacre de Cahors. 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lagr%C3%A9zette</t>
+          <t>Château_Lagrézette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,19 +568,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le vignoble
-Situé entre le 44e et 45e parallèle, le château Lagrézette est bâti, à vol d’oiseau, à égale distance de l’océan Atlantique, de la mer Méditerranée et des Pyrénées. 
+          <t>Le vignoble</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé entre le 44e et 45e parallèle, le château Lagrézette est bâti, à vol d’oiseau, à égale distance de l’océan Atlantique, de la mer Méditerranée et des Pyrénées. 
 Le vignoble s’étend sur 60 hectares, sur un sol limoneux-argileux sur graves, et repose sur un socle de calcaire kimméridgien datant de plus de 150 millions d’années. Situé en deuxième et troisième terrasses, il jouit d’un climat à dominante continentale. Les hivers frais et humides et les étés, chauds et secs, permettent au cépage Malbec d’exprimer toute sa puissance et sa complexité aromatique, selon les dires du vigneron. 
-Alain-Dominique Perrin, propriétaire actuel
-Le propriétaire M. Alain-Dominique Perrin fût salarié du joailler Cartier.
-Le savoir-faire
-Ainsi, la terre du château Lagrézette reprend vie. Alain-Dominique Perrin met en œuvre, avec toute la passion qui le caractérise, un programme de replantation du Malbec extrêmement ambitieux et fait alors appel à l’œnologue consultant de renom international Michel Rolland. Son souci de la perfection n’a qu’un objectif : compter parmi les meilleurs nectars du monde.
-Le chai
-Construit en 1992, rénové en 2011, le chai souterrain du château Lagrézette est à lui seul une œuvre d’art. Son architecture, qui allie modernité et esthétisme, est, en effet, unique au monde.
-Sa conception, sur trois niveaux, permet de travailler en utilisant le principe de gravité afin de préserver l’intégrité des précieux raisins. Les grappes, récoltées à la main, arrivent sur les tables de tri avant d’être éraflées. Seules les grappes les plus belles sont conservées afin d’obtenir des vins de grande qualité. Le raisin est ensuite amené à l’étage inférieur pour y être vinifié par parcelle.
-Puis, vient la dernière étape, le chai à barriques, qui permet aux vins de vieillir dans les meilleures conditions et d’offrir à leur ouverture un voyage sensoriel inoubliable.
-Le cépage Malbec
-Originaire du Sud-Ouest de la France, où il portait le nom de côt, le Malbec a connu ses lettres de noblesse dès le Moyen Âge, devenant même le «Vin des Rois». L’Angleterre en était folle et faisait rayonner le Malbec aux quatre coins du monde. Mais c’est un ingénieur agronome français, Michel A. Pouget, qui, dépêché par le gouvernement argentin, exportera les premières vignes de Malbec dans ce grand pays d’Amérique du Sud. Aujourd’hui, le pari fou est gagné. Ses vins, puissants, généreux, élégants et raffinés sont l’expression d’un profond attachement à la région, à son art de vivre, à sa culture et à ses traditions.
 </t>
         </is>
       </c>
@@ -577,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lagr%C3%A9zette</t>
+          <t>Château_Lagrézette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,10 +601,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le château Lagrezette</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alain-Dominique Perrin, propriétaire actuel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le propriétaire M. Alain-Dominique Perrin fût salarié du joailler Cartier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_Lagrézette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Lagr%C3%A9zette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le château Lagrezette</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le savoir-faire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ainsi, la terre du château Lagrézette reprend vie. Alain-Dominique Perrin met en œuvre, avec toute la passion qui le caractérise, un programme de replantation du Malbec extrêmement ambitieux et fait alors appel à l’œnologue consultant de renom international Michel Rolland. Son souci de la perfection n’a qu’un objectif : compter parmi les meilleurs nectars du monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_Lagrézette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Lagr%C3%A9zette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le château Lagrezette</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le chai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construit en 1992, rénové en 2011, le chai souterrain du château Lagrézette est à lui seul une œuvre d’art. Son architecture, qui allie modernité et esthétisme, est, en effet, unique au monde.
+Sa conception, sur trois niveaux, permet de travailler en utilisant le principe de gravité afin de préserver l’intégrité des précieux raisins. Les grappes, récoltées à la main, arrivent sur les tables de tri avant d’être éraflées. Seules les grappes les plus belles sont conservées afin d’obtenir des vins de grande qualité. Le raisin est ensuite amené à l’étage inférieur pour y être vinifié par parcelle.
+Puis, vient la dernière étape, le chai à barriques, qui permet aux vins de vieillir dans les meilleures conditions et d’offrir à leur ouverture un voyage sensoriel inoubliable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Château_Lagrézette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Lagr%C3%A9zette</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le château Lagrezette</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le cépage Malbec</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Sud-Ouest de la France, où il portait le nom de côt, le Malbec a connu ses lettres de noblesse dès le Moyen Âge, devenant même le «Vin des Rois». L’Angleterre en était folle et faisait rayonner le Malbec aux quatre coins du monde. Mais c’est un ingénieur agronome français, Michel A. Pouget, qui, dépêché par le gouvernement argentin, exportera les premières vignes de Malbec dans ce grand pays d’Amérique du Sud. Aujourd’hui, le pari fou est gagné. Ses vins, puissants, généreux, élégants et raffinés sont l’expression d’un profond attachement à la région, à son art de vivre, à sa culture et à ses traditions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Château_Lagrézette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Lagr%C3%A9zette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Les récompenses des vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les vins du Château Lagrézette ont reçu de nombreuses récompenses.
 En 2005, le cru Le Pigeonnier, cuvée la plus prestigieuse du château Lagrézette, a été classé dans les 100 meilleurs vins du monde par la revue spécialisée  Wine Spectator.
@@ -611,34 +772,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_Lagr%C3%A9zette</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Château_Lagrézette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Lagr%C3%A9zette</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>L'art contemporain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1984 en tant que fondateur de la Fondation Cartier pour l'art contemporain, Alain-Dominique Perrin et son épouse Mathé, ont reçu, au château de Lagrézette, de très nombreux artistes parmi lesquels le sculpteur César, les peintres Robert Combas, Di Rosa, Jean-Charles Blais qui ont décoré certaines pièces du château et d'autres, venus à Cahors à l'occasion du "Printemps de la photo de Cahors", comme Herb Ritts, le musicien  Elton John, Helmut Newton, Lou Reed, Richard Gere, Dennis Hopper, Wim Wenders, David Lynch.
-En 2002, Tony Blair, à l'époque Premier ministre du Royaume-Uni, séjourna au château[2].
+En 2002, Tony Blair, à l'époque Premier ministre du Royaume-Uni, séjourna au château.
 </t>
         </is>
       </c>
